--- a/HPC-ED_v2.xlsx
+++ b/HPC-ED_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw427/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6919C565-B31C-FD48-B8C5-88AB570BB3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95546DE5-A1E5-D249-9D27-E7224540C7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13920" yWindow="500" windowWidth="45600" windowHeight="25400" xr2:uid="{C125976B-43E7-EE47-82F5-DCFA9787290D}"/>
   </bookViews>
@@ -1358,7 +1358,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Dropdown is available for columns with the triangle symbol (▼).</a:t>
+            <a:t>Dropdowns are available for columns with the triangle symbol (▼).</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:effectLst/>

--- a/HPC-ED_v2.xlsx
+++ b/HPC-ED_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw427/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95546DE5-A1E5-D249-9D27-E7224540C7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F4CCE3-CA33-244F-AE18-E4387E30FD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13920" yWindow="500" windowWidth="45600" windowHeight="25400" xr2:uid="{C125976B-43E7-EE47-82F5-DCFA9787290D}"/>
   </bookViews>
@@ -1066,7 +1066,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Blue headers indicate required metadata and orange headers indicate the</a:t>
+            <a:t>Blue headers indicate required fields and orange headers indicate the</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -1078,7 +1078,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> metadata is optional</a:t>
+            <a:t> fields are optional</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
@@ -1206,7 +1206,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Hover over column names to see simple descriptions.</a:t>
+            <a:t>Hover over field names to see simple descriptions.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:effectLst/>
@@ -1358,7 +1358,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Dropdowns are available for columns with the triangle symbol (▼).</a:t>
+            <a:t>Dropdowns are available for fields with the triangle symbol (▼).</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:effectLst/>
@@ -4477,7 +4477,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
